--- a/Grocery-Application/src/test/resources/TestData/excelReadLogin.xlsx
+++ b/Grocery-Application/src/test/resources/TestData/excelReadLogin.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="3525"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="3525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="category" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -28,19 +28,43 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Hair Accesories for kids</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>updatedCategoryName</t>
+  </si>
+  <si>
+    <t>Hair clips for kids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,7 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -401,13 +427,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Grocery-Application/src/test/resources/TestData/excelReadLogin.xlsx
+++ b/Grocery-Application/src/test/resources/TestData/excelReadLogin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="3525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="3525"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Hair clips for kids</t>
+  </si>
+  <si>
+    <t>admin12345ad</t>
+  </si>
+  <si>
+    <t>admin12345nm</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,8 +426,25 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -429,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
